--- a/medicine/Enfance/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_française_-_texte/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_française_-_texte.xlsx
+++ b/medicine/Enfance/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_française_-_texte/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_française_-_texte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_du_Gouverneur_g%C3%A9n%C3%A9ral_:_litt%C3%A9rature_jeunesse_de_langue_fran%C3%A7aise_-_texte</t>
+          <t>Prix_du_Gouverneur_général_:_littérature_jeunesse_de_langue_française_-_texte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le prix du Gouverneur général dans la catégorie littérature jeunesse de langue française - texte est l'un des plus prestigieux prix de littérature d'enfance et de jeunesse au Canada. Ce prix fut décerné pour la première fois en 1987, en même temps que le prix du Gouverneur général : littérature jeunesse de langue anglaise - texte.
 Voici une liste des lauréats du prix du Gouverneur général dans la catégorie littérature jeunesse de langue française - texte :
@@ -519,7 +531,7 @@
 2019 : Dominique Demers, L'albatros et la mésange
 2020 : François Blais, Lac Adélard
 2021 : Jean-François Sénéchal, Les avenues
-2022 : Julie Champagne, Cancer ascendant Autruche[1]</t>
+2022 : Julie Champagne, Cancer ascendant Autruche</t>
         </is>
       </c>
     </row>
